--- a/biology/Histoire de la zoologie et de la botanique/Kakichi_Mitsukuri/Kakichi_Mitsukuri.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Kakichi_Mitsukuri/Kakichi_Mitsukuri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kakichi Mitsukuri (箕作佳吉:1857-1909) est un zoologiste japonais, né en 1857 à Edo et mort en 1909[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kakichi Mitsukuri (箕作佳吉:1857-1909) est un zoologiste japonais, né en 1857 à Edo et mort en 1909.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vient étudier aux États-Unis en 1873 et reçoit un Ph. D. à l’université Yale en 1879 ainsi à qu’à l’université Johns-Hopkins en 1883. Il devient professeur au département des sciences de l’université impériale de Tokyo en 1882 et membre du conseil de l’université en 1893.
 En 1896, il est à la tête de commission sur les otaries à fourrure et signe, au nom du Japon, un traité avec les États-Unis et la Grande-Bretagne.
@@ -546,11 +560,13 @@
           <t>Biologie marine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Japon, la première station de biologie marine est fondée pendant l’ère Meiji (1868-1912) à Misaki. Le Laboratoire de Misaki est créé en 1886 à l'initiative de Kakichi Mitsukuri, alors professeur de zoologie à l’Université de Tokyo, sur les recommandations, pour son implantation, de Ludwig Döderlein (1855-1936) et sur le modèle de conception, par Anton Dohrn (1840-1909), de la Station zoologique de Naples, comprenant un aquarium[2].
-Le Pr Mitsukuri avait décidé, en 1884, d'établir une station biologique marine à Misaki. L’Université de Tokyo a obtenu un site dans la ville de Misaki en 1885 et le laboratoire a été achevé le 13 décembre 1886 puis a été baptisé Misaki Marine Biological Station (MMBS) le 1er avril 1887[3],[4].
-Après son déplacement de site en 1897, Kakichi Mitsukuri devient le premier directeur (1898-1904) de la station où une villa lui est attribuée pour y résider[5],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Japon, la première station de biologie marine est fondée pendant l’ère Meiji (1868-1912) à Misaki. Le Laboratoire de Misaki est créé en 1886 à l'initiative de Kakichi Mitsukuri, alors professeur de zoologie à l’Université de Tokyo, sur les recommandations, pour son implantation, de Ludwig Döderlein (1855-1936) et sur le modèle de conception, par Anton Dohrn (1840-1909), de la Station zoologique de Naples, comprenant un aquarium.
+Le Pr Mitsukuri avait décidé, en 1884, d'établir une station biologique marine à Misaki. L’Université de Tokyo a obtenu un site dans la ville de Misaki en 1885 et le laboratoire a été achevé le 13 décembre 1886 puis a été baptisé Misaki Marine Biological Station (MMBS) le 1er avril 1887,.
+Après son déplacement de site en 1897, Kakichi Mitsukuri devient le premier directeur (1898-1904) de la station où une villa lui est attribuée pour y résider,.
 </t>
         </is>
       </c>
